--- a/meals_log.xlsx
+++ b/meals_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,87 +488,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>banana_butter</t>
+          <t>kalamakia_classic</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.0x Banana</t>
+          <t>2.1x Chichen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.0x 1(medium)</t>
+          <t>2.1x 100g</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>354.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>67.2</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>banana_butter</t>
+          <t>kalamakia_classic</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.25x Peanutbutter</t>
+          <t>2.0x Pita Kalampokiou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Calve</t>
+          <t>Karamolegos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.25x 100g</t>
+          <t>2.0x 1(82g)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>166</v>
+        <v>434</v>
       </c>
       <c r="F3" t="n">
-        <v>5.25</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>banana_butter</t>
+          <t>kalamakia_classic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,99 +579,99 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>271</v>
+        <v>788.9000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>6.25</v>
+        <v>79.2</v>
       </c>
       <c r="G4" t="n">
-        <v>29.75</v>
+        <v>86</v>
       </c>
       <c r="H4" t="n">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>12.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0.25</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>homemade protein peanutbutter bars</t>
+          <t>beef_n_rice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.1x PeanutButter</t>
+          <t>0.9x Rice</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Haitoglou</t>
+          <t>Basmati</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.1x 100g</t>
+          <t>0.9x 100g</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>671</v>
+        <v>315.9</v>
       </c>
       <c r="F5" t="n">
-        <v>24.2</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>18.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>9.9</v>
+        <v>0.9</v>
       </c>
       <c r="I5" t="n">
-        <v>53.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>homemade protein peanutbutter bars</t>
+          <t>beef_n_rice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.2x Dates</t>
+          <t>2.0x Ground beef</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EMMA</t>
+          <t>Cooked(80-20)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.2x 100g</t>
+          <t>2.0x 100g</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>562.8</v>
+        <v>492</v>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -680,38 +680,38 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>homemade protein peanutbutter bars</t>
+          <t>beef_n_rice</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.1x yogurt</t>
+          <t>1.0x Cucumber</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fage</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.1x 100g</t>
+          <t>1.0x 1(medium)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -720,38 +720,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>homemade protein peanutbutter bars</t>
+          <t>beef_n_rice</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.2x Protein Powder</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Dymatize iso 100</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.2x 1 scoop (32g)</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>264</v>
+        <v>837.9000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>55.00000000000001</v>
+        <v>56.2</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -760,12 +752,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>homemade protein peanutbutter bars</t>
+          <t>pbnj toast</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.8x Oats</t>
+          <t>2.0x Bread</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,23 +767,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.8x 100g</t>
+          <t>2.0x 1(slice)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="F9" t="n">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>55.2</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -800,224 +792,224 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>homemade protein peanutbutter bars</t>
+          <t>pbnj toast</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>0.25x Straberry Jam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Health Habits</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25x 100g</t>
+        </is>
+      </c>
       <c r="E10" t="n">
-        <v>1874.8</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>101.4</v>
+        <v>0.25</v>
       </c>
       <c r="G10" t="n">
-        <v>171.6</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>64.70000000000002</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>classic yogurt breakfast</t>
+          <t>pbnj toast</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.0x Yogurt</t>
+          <t>0.25x PeanutButter</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Olympos</t>
+          <t>Haitoglou</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.0x 100g</t>
+          <t>0.25x 100g</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>144</v>
+        <v>152.5</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>5.5</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>4.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>12.25</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>classic yogurt breakfast</t>
+          <t>pbnj toast</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.3x Granola</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Healthy Habits</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.3x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>143.4</v>
+        <v>335.5</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>9.75</v>
       </c>
       <c r="G12" t="n">
-        <v>16.8</v>
+        <v>41.25</v>
       </c>
       <c r="H12" t="n">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="I12" t="n">
-        <v>6.3</v>
+        <v>14.25</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>classic yogurt breakfast</t>
+          <t>chichen_potato</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.15x Straberry Jam</t>
+          <t>2.0x Chichen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Health Habits</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.15x 100g</t>
+          <t>2.0x 100g</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.6</v>
+        <v>338</v>
       </c>
       <c r="F13" t="n">
-        <v>0.15</v>
+        <v>64</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>classic yogurt breakfast</t>
+          <t>chichen_potato</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.2x PeanutButter</t>
+          <t>2.5x BabyPotatos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Haitoglou</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.2x 100g</t>
+          <t>2.5x 100g</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>122</v>
+        <v>192.5</v>
       </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>42.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>classic yogurt breakfast</t>
+          <t>chichen_potato</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.3x Forest Fruits</t>
+          <t>1.0x Cucumber</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gustona</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.3x 100g</t>
+          <t>1.0x 1(medium)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.9</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1032,222 +1024,222 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>classic yogurt breakfast</t>
+          <t>chichen_potato</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+          <t>1.0x OliveOil</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.0x 1 tablespoon</t>
+        </is>
+      </c>
       <c r="E16" t="n">
-        <v>458.9</v>
+        <v>115</v>
       </c>
       <c r="F16" t="n">
-        <v>27.85</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>38.7</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>20.1</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>beef n rice</t>
+          <t>chichen_potato</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.0x Ground beef</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cooked(80-20)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.0x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>492</v>
+        <v>675.5</v>
       </c>
       <c r="F17" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>beef n rice</t>
+          <t>big_kalamakia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.8x Rice</t>
+          <t>2.9x Chichen</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Basmati</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.8x 100g</t>
+          <t>2.9x 100g</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>280.8</v>
+        <v>490.1</v>
       </c>
       <c r="F18" t="n">
-        <v>6.4</v>
+        <v>92.8</v>
       </c>
       <c r="G18" t="n">
-        <v>60.8</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>beef n rice</t>
+          <t>big_kalamakia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0x Cucumber</t>
+          <t>2.0x Pita Kalampokiou</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Karamolegos</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.0x 1(medium)</t>
+          <t>2.0x 1(82g)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>beef n rice</t>
+          <t>big_kalamakia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.0x Mustard</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.0x 1tpsp</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>924.0999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>104.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>beef n rice</t>
+          <t>scoop_n_fruit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+          <t>1.0x Protein Powder</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dymatize iso 100</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.0x 1 scoop (32g)</t>
+        </is>
+      </c>
       <c r="E21" t="n">
-        <v>812.8</v>
+        <v>120</v>
       </c>
       <c r="F21" t="n">
-        <v>56.4</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>68.80000000000001</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1256,150 +1248,150 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kalamakia classic</t>
+          <t>scoop_n_fruit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.8x Chichen</t>
+          <t>1.0x Banana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.8x 100g</t>
+          <t>1.0x 1(medium)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>304.2</v>
+        <v>105</v>
       </c>
       <c r="F22" t="n">
-        <v>57.6</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H22" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kalamakia classic</t>
+          <t>scoop_n_fruit</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.0x Pita Kalampokiou</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Karamolegos</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.0x 1(82g)</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>434</v>
+        <v>225</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kalamakia classic</t>
+          <t>classic_yogurt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+          <t>2.0x Yogurt</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Olympos</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.0x 100g</t>
+        </is>
+      </c>
       <c r="E24" t="n">
-        <v>738.2</v>
+        <v>144</v>
       </c>
       <c r="F24" t="n">
-        <v>69.59999999999999</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>11.2</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>overnight classic</t>
+          <t>classic_yogurt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.0x Yogurt</t>
+          <t>0.3x Granola</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Olympos</t>
+          <t>Healthy Habits</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.0x 100g</t>
+          <t>0.3x 100g</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>72</v>
+        <v>143.4</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>16.8</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1408,12 +1400,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>overnight classic</t>
+          <t>classic_yogurt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.1x PeanutButter</t>
+          <t>0.15x PeanutButter</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1423,37 +1415,37 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.1x 100g</t>
+          <t>0.15x 100g</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>61</v>
+        <v>91.5</v>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>7.35</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>overnight classic</t>
+          <t>classic_yogurt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.1x Straberry Jam</t>
+          <t>0.2x Straberry Jam</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1463,17 +1455,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.1x 100g</t>
+          <t>0.2x 100g</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.4</v>
+        <v>48.8</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1488,32 +1480,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>overnight classic</t>
+          <t>classic_yogurt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.5x Banana</t>
+          <t>0.5x Strawberries</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Frozen</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.5x 1(medium)</t>
+          <t>0.5x 100g</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>52.5</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
         <v>0.5</v>
       </c>
       <c r="G28" t="n">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1528,78 +1520,70 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>overnight classic</t>
+          <t>classic_yogurt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.0x Protein Powder</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Dymatize iso 100</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.0x 1 scoop (32g)</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>120</v>
+        <v>445.7</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>42.85</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>17.65</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>overnight classic</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.3x Oats</t>
+          <t>1.0x Yogurt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Olympos</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.3x 100g</t>
+          <t>1.0x 100g</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>112.5</v>
+        <v>72</v>
       </c>
       <c r="F30" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>20.7</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1608,110 +1592,118 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>overnight classic</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+          <t>0.2x PeanutButter</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Haitoglou</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.2x 100g</t>
+        </is>
+      </c>
       <c r="E31" t="n">
-        <v>442.4</v>
+        <v>122</v>
       </c>
       <c r="F31" t="n">
-        <v>41.09999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="G31" t="n">
-        <v>47.9</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="I31" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>classic omelette</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.0x Egg</t>
+          <t>0.25x Straberry Jam</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Health Habits</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.0x 1</t>
+          <t>0.25x 100g</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>0.25</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>classic omelette</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.0x Egg whites</t>
+          <t>1.0x Protein Powder</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Xrysa Avga</t>
+          <t>Dymatize iso 100</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.0x 100g</t>
+          <t>1.0x 1 scoop (32g)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1720,78 +1712,78 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>classic omelette</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.54x Cheese</t>
+          <t>0.3x Oats</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dirollo</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.54x 100g</t>
+          <t>0.3x 100g</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>146.88</v>
+        <v>112.5</v>
       </c>
       <c r="F34" t="n">
-        <v>17.28</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="H34" t="n">
-        <v>5.94</v>
+        <v>0.3</v>
       </c>
       <c r="I34" t="n">
-        <v>8.640000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="J34" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>classic omelette</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.25x Tomato</t>
+          <t>0.15x AlmondMilk</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Delta</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.25x 100g</t>
+          <t>0.15x 100ml</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.5</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1800,47 +1792,47 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>classic omelette</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.0x Tortilla</t>
+          <t>0.5x Banana</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HighProtein</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.0x 1(62.5g)</t>
+          <t>0.5x 1(medium)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>197</v>
+        <v>52.5</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="G36" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>classic omelette</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1851,22 +1843,1254 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>538.38</v>
+        <v>544.65</v>
       </c>
       <c r="F37" t="n">
-        <v>51.53</v>
+        <v>43.6</v>
       </c>
       <c r="G37" t="n">
-        <v>29</v>
+        <v>59.05</v>
       </c>
       <c r="H37" t="n">
-        <v>11.94</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>22.64</v>
+        <v>15.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.54</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>omellete_tortilla</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.0x Egg whites</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Xrysa Avga</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.0x 100g</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>46</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>omellete_tortilla</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2.0x Egg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.0x 1</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>144</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>omellete_tortilla</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.0x Tortilla</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>HighProtein</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.0x 1(62.5g)</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>197</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11</v>
+      </c>
+      <c r="G40" t="n">
+        <v>27</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>omellete_tortilla</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.3x Cheese</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Dirollo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>omellete_tortilla</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.4x Tomato</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.4x 100g</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>omellete_tortilla</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>475.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>44</v>
+      </c>
+      <c r="G43" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>protein porridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.5x Rice Porridge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gymbeam</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>174</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>38</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>protein porridge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.0x Protein Powder</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Dymatize iso 100</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.0x 1 scoop (32g)</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>120</v>
+      </c>
+      <c r="F45" t="n">
+        <v>25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>protein porridge</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.0x Banana</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.0x 1(medium)</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>105</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>27</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>protein porridge</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.1x PeanutButter</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Haitoglou</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.1x 100g</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>61</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>protein porridge</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>460</v>
+      </c>
+      <c r="F48" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="G48" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>tuna dry salad</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.2x Paksimadi(Krithino)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.2x 100g</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>tuna dry salad</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.0x Cucumber</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.0x 1(medium)</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>30</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>tuna dry salad</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1.0x Mustard</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.0x 1tpsp</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>tuna dry salad</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.3x Corn_boiled</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>tuna dry salad</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1.4x Tuna(water)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.4x 100g</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>140</v>
+      </c>
+      <c r="F53" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>tuna dry salad</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.0x OliveOil</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.0x 1 tablespoon</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>115</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>tuna dry salad</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Icecream Bueno</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3.3x Milk 1.7%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Olympos</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.3x 100g</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Icecream Bueno</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.3x Protein Powder</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Prozis</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Icecream Bueno</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1.0x Bueno</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Kinder</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.0x 1(21.5g)</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>122</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Icecream Bueno</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Icecream Strawberry</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3.3x Milk 1.7%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Olympos</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.3x 100g</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Icecream Strawberry</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.3x Protein Shake</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MyProtein</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Icecream Strawberry</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.5x Strawberries</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Frozen</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>18</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Icecream Strawberry</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>32</v>
+      </c>
+      <c r="G63" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8.399999999999999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>chicken_tortilla</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1.0x Tortilla</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>HighProtein</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.0x 1(62.5g)</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>197</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="n">
+        <v>27</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>chicken_tortilla</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.6x Chichen</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Breast</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.6x 100g</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>chicken_tortilla</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.2x Cheese</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Dirollo</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.2x 100g</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>54.40000000000001</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>chicken_tortilla</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.5x Cottage</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Flair</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>46</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>chicken_tortilla</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.0x Mustard</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.0x 1tpsp</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>chicken_tortilla</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>408.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6.300000000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>

--- a/meals_log.xlsx
+++ b/meals_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,30 +605,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.9x Rice</t>
+          <t>1.0x Cucumber</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Basmati</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.9x 100g</t>
+          <t>1.0x 1(medium)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>315.9</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>68.40000000000001</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -685,30 +685,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.0x Cucumber</t>
+          <t>1.0x Rice</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Basmati</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.0x 1(medium)</t>
+          <t>1.0x 100g</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>76</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -725,25 +725,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>1.0x Mustard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.0x 1tpsp</t>
+        </is>
+      </c>
       <c r="E8" t="n">
-        <v>837.9000000000001</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>56.2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>75.40000000000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -752,38 +760,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pbnj toast</t>
+          <t>beef_n_rice</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2.0x Bread</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.0x 1(slice)</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>122</v>
+        <v>883</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -797,33 +797,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.25x Straberry Jam</t>
+          <t>2.0x Bread</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Health Habits</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.25x 100g</t>
+          <t>2.0x 1(slice)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F10" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -837,12 +837,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.25x PeanutButter</t>
+          <t>0.25x Straberry Jam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Haitoglou</t>
+          <t>Health Habits</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,22 +851,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>152.5</v>
+        <v>61</v>
       </c>
       <c r="F11" t="n">
-        <v>5.5</v>
+        <v>0.25</v>
       </c>
       <c r="G11" t="n">
-        <v>4.25</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -877,25 +877,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>0.25x PeanutButter</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Haitoglou</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25x 100g</t>
+        </is>
+      </c>
       <c r="E12" t="n">
-        <v>335.5</v>
+        <v>152.5</v>
       </c>
       <c r="F12" t="n">
-        <v>9.75</v>
+        <v>5.5</v>
       </c>
       <c r="G12" t="n">
-        <v>41.25</v>
+        <v>4.25</v>
       </c>
       <c r="H12" t="n">
         <v>2.25</v>
       </c>
       <c r="I12" t="n">
-        <v>14.25</v>
+        <v>12.25</v>
       </c>
       <c r="J12" t="n">
         <v>0.25</v>
@@ -904,41 +912,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>chichen_potato</t>
+          <t>pbnj toast</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.0x Chichen</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Breast</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.0x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>338</v>
+        <v>335.5</v>
       </c>
       <c r="F13" t="n">
-        <v>64</v>
+        <v>9.75</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>41.25</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>14.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
@@ -949,33 +949,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.5x BabyPotatos</t>
+          <t>1.0x OliveOil</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.5x 100g</t>
+          <t>1.0x 1 tablespoon</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>192.5</v>
+        <v>115</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1029,33 +1029,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.0x OliveOil</t>
+          <t>3.0x BabyPotatos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.0x 1 tablespoon</t>
+          <t>3.0x 100g</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1069,25 +1069,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+          <t>2.0x Chichen</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Breast</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.0x 100g</t>
+        </is>
+      </c>
       <c r="E17" t="n">
-        <v>675.5</v>
+        <v>338</v>
       </c>
       <c r="F17" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G17" t="n">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -1096,41 +1104,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>big_kalamakia</t>
+          <t>chichen_potato</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.9x Chichen</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Breast</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.9x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>490.1</v>
+        <v>714</v>
       </c>
       <c r="F18" t="n">
-        <v>92.8</v>
+        <v>71</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>11.6</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1141,36 +1141,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.0x Pita Kalampokiou</t>
+          <t>2.9x Chichen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Karamolegos</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.0x 1(82g)</t>
+          <t>2.9x 100g</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>434</v>
+        <v>490.1</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>92.8</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>11.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="20">
@@ -1181,68 +1181,68 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>2.0x Pita Kalampokiou</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Karamolegos</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.0x 1(82g)</t>
+        </is>
+      </c>
       <c r="E20" t="n">
-        <v>924.0999999999999</v>
+        <v>434</v>
       </c>
       <c r="F20" t="n">
-        <v>104.8</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
         <v>86</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>15.6</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>scoop_n_fruit</t>
+          <t>big_kalamakia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.0x Protein Powder</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Dymatize iso 100</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.0x 1 scoop (32g)</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>924.0999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>104.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>15.6</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="22">
@@ -1253,33 +1253,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.0x Banana</t>
+          <t>1.0x Protein Powder</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Dymatize iso 100</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.0x 1(medium)</t>
+          <t>1.0x 1 scoop (32g)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F22" t="n">
+        <v>25</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>27</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1293,25 +1293,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+          <t>1.0x Banana</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.0x 1(medium)</t>
+        </is>
+      </c>
       <c r="E23" t="n">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1320,38 +1328,30 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>classic_yogurt</t>
+          <t>scoop_n_fruit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.0x Yogurt</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Olympos</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.0x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1365,33 +1365,33 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.3x Granola</t>
+          <t>2.0x Yogurt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Healthy Habits</t>
+          <t>Olympos</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.3x 100g</t>
+          <t>2.0x 100g</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>143.4</v>
+        <v>144</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>16.8</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1405,36 +1405,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.15x PeanutButter</t>
+          <t>0.3x Granola</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Haitoglou</t>
+          <t>Healthy Habits</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.15x 100g</t>
+          <t>0.3x 100g</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>91.5</v>
+        <v>143.4</v>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.55</v>
+        <v>16.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="I26" t="n">
-        <v>7.35</v>
+        <v>6.3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1445,36 +1445,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.2x Straberry Jam</t>
+          <t>0.15x PeanutButter</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Health Habits</t>
+          <t>Haitoglou</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.2x 100g</t>
+          <t>0.15x 100g</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>48.8</v>
+        <v>91.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>2.55</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28">
@@ -1485,27 +1485,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.5x Strawberries</t>
+          <t>0.2x Straberry Jam</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Frozen</t>
+          <t>Health Habits</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.5x 100g</t>
+          <t>0.2x 100g</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>48.8</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1525,68 +1525,68 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+          <t>0.5x Strawberries</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Frozen</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
       <c r="E29" t="n">
-        <v>445.7</v>
+        <v>18</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>42.85</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.65</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>overnight_classic</t>
+          <t>classic_yogurt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.0x Yogurt</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Olympos</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.0x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>72</v>
+        <v>445.7</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>42.85</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>4.55</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>17.65</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31">
@@ -1597,36 +1597,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.2x PeanutButter</t>
+          <t>1.0x Yogurt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Haitoglou</t>
+          <t>Olympos</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.2x 100g</t>
+          <t>1.0x 100g</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>9.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1637,36 +1637,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.25x Straberry Jam</t>
+          <t>0.2x PeanutButter</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Health Habits</t>
+          <t>Haitoglou</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.25x 100g</t>
+          <t>0.2x 100g</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F32" t="n">
-        <v>0.25</v>
+        <v>4.4</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
@@ -1677,33 +1677,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.0x Protein Powder</t>
+          <t>0.25x Straberry Jam</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dymatize iso 100</t>
+          <t>Health Habits</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.0x 1 scoop (32g)</t>
+          <t>0.25x 100g</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="F33" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1717,33 +1717,33 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.3x Oats</t>
+          <t>1.0x Protein Powder</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Dymatize iso 100</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.3x 100g</t>
+          <t>1.0x 1 scoop (32g)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>112.5</v>
+        <v>120</v>
       </c>
       <c r="F34" t="n">
-        <v>3.3</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>20.7</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1757,33 +1757,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.15x AlmondMilk</t>
+          <t>0.3x Oats</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Delta</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.15x 100ml</t>
+          <t>0.3x 100g</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.649999999999999</v>
+        <v>112.5</v>
       </c>
       <c r="F35" t="n">
-        <v>0.15</v>
+        <v>3.3</v>
       </c>
       <c r="G35" t="n">
-        <v>0.45</v>
+        <v>20.7</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1797,33 +1797,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.5x Banana</t>
+          <t>0.15x AlmondMilk</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Delta</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.5x 1(medium)</t>
+          <t>0.15x 100ml</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.5</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="G36" t="n">
-        <v>13.5</v>
+        <v>0.45</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1837,68 +1837,68 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+          <t>0.5x Banana</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.5x 1(medium)</t>
+        </is>
+      </c>
       <c r="E37" t="n">
-        <v>544.65</v>
+        <v>52.5</v>
       </c>
       <c r="F37" t="n">
-        <v>43.6</v>
+        <v>0.5</v>
       </c>
       <c r="G37" t="n">
-        <v>59.05</v>
+        <v>13.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>omellete_tortilla</t>
+          <t>overnight_classic</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.0x Egg whites</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Xrysa Avga</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.0x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>46</v>
+        <v>544.65</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>43.59999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>59.05</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39">
@@ -1909,36 +1909,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.0x Egg</t>
+          <t>1.0x Egg whites</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Xrysa Avga</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.0x 1</t>
+          <t>1.0x 100g</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="F39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1949,36 +1949,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.0x Tortilla</t>
+          <t>2.0x Egg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HighProtein</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.0x 1(62.5g)</t>
+          <t>2.0x 1</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="F40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" t="n">
         <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1989,36 +1989,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.3x Cheese</t>
+          <t>1.0x Tortilla</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dirollo</t>
+          <t>HighProtein</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.3x 100g</t>
+          <t>1.0x 1(62.5g)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>81.59999999999999</v>
+        <v>197</v>
       </c>
       <c r="F41" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H41" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2029,36 +2029,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.4x Tomato</t>
+          <t>0.3x Cheese</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Dirollo</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.4x 100g</t>
+          <t>0.3x 100g</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4</v>
+        <v>9.6</v>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
@@ -2069,68 +2069,68 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+          <t>0.4x Tomato</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.4x 100g</t>
+        </is>
+      </c>
       <c r="E43" t="n">
-        <v>475.8</v>
+        <v>7.2</v>
       </c>
       <c r="F43" t="n">
-        <v>44</v>
+        <v>0.4</v>
       </c>
       <c r="G43" t="n">
-        <v>29.6</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>protein porridge</t>
+          <t>omellete_tortilla</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0.5x Rice Porridge</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Gymbeam</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.5x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>174</v>
+        <v>475.8</v>
       </c>
       <c r="F44" t="n">
-        <v>4.5</v>
+        <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>38</v>
+        <v>29.6</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="45">
@@ -2141,33 +2141,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.0x Protein Powder</t>
+          <t>0.5x Rice Porridge</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dymatize iso 100</t>
+          <t>Gymbeam</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.0x 1 scoop (32g)</t>
+          <t>0.5x 100g</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>4.5</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2181,33 +2181,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.0x Banana</t>
+          <t>1.0x Protein Powder</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Dymatize iso 100</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.0x 1(medium)</t>
+          <t>1.0x 1 scoop (32g)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F46" t="n">
+        <v>25</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>27</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2221,36 +2221,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.1x PeanutButter</t>
+          <t>1.0x Banana</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Haitoglou</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.1x 100g</t>
+          <t>1.0x 1(medium)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F47" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>27</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2261,25 +2261,33 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+          <t>0.1x PeanutButter</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Haitoglou</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.1x 100g</t>
+        </is>
+      </c>
       <c r="E48" t="n">
-        <v>460</v>
+        <v>61</v>
       </c>
       <c r="F48" t="n">
-        <v>32.7</v>
+        <v>2.2</v>
       </c>
       <c r="G48" t="n">
-        <v>68.7</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0.9</v>
       </c>
       <c r="I48" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="J48" t="n">
         <v>0.1</v>
@@ -2288,41 +2296,33 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tuna dry salad</t>
+          <t>protein porridge</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.2x Paksimadi(Krithino)</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.2x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>75.2</v>
+        <v>460</v>
       </c>
       <c r="F49" t="n">
-        <v>2.2</v>
+        <v>32.7</v>
       </c>
       <c r="G49" t="n">
-        <v>13.6</v>
+        <v>68.7</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50">
@@ -2333,36 +2333,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.0x Cucumber</t>
+          <t>0.2x Paksimadi(Krithino)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.0x 1(medium)</t>
+          <t>0.2x 100g</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>75.2</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>13.6</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.0x Mustard</t>
+          <t>1.0x Cucumber</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.0x 1tpsp</t>
+          <t>1.0x 1(medium)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0.3x Corn_boiled</t>
+          <t>1.0x Mustard</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2423,23 +2423,23 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.3x 100g</t>
+          <t>1.0x 1tpsp</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.4</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2453,36 +2453,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.4x Tuna(water)</t>
+          <t>0.3x Corn_boiled</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.4x 100g</t>
+          <t>0.3x 100g</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>140</v>
+        <v>32.4</v>
       </c>
       <c r="F53" t="n">
-        <v>32.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="J53" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2493,36 +2493,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.0x OliveOil</t>
+          <t>1.4x Tuna(water)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.0x 1 tablespoon</t>
+          <t>1.4x 100g</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="55">
@@ -2533,68 +2533,68 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t>1.0x OliveOil</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.0x 1 tablespoon</t>
+        </is>
+      </c>
       <c r="E55" t="n">
-        <v>402.6</v>
+        <v>115</v>
       </c>
       <c r="F55" t="n">
-        <v>37.3</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Icecream Bueno</t>
+          <t>tuna dry salad</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3.3x Milk 1.7%</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Olympos</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>3.3x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>161.7</v>
+        <v>402.6</v>
       </c>
       <c r="F56" t="n">
-        <v>13.2</v>
+        <v>37.3</v>
       </c>
       <c r="G56" t="n">
-        <v>16.5</v>
+        <v>29.1</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="I56" t="n">
-        <v>6.6</v>
+        <v>12.5</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="57">
@@ -2605,36 +2605,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.3x Protein Powder</t>
+          <t>3.3x Milk 1.7%</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Prozis</t>
+          <t>Olympos</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3x 100g</t>
+          <t>3.3x 100g</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>106.8</v>
+        <v>161.7</v>
       </c>
       <c r="F57" t="n">
-        <v>24.6</v>
+        <v>13.2</v>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>16.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3</v>
+        <v>6.6</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2645,36 +2645,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.0x Bueno</t>
+          <t>0.3x Protein Powder</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Kinder</t>
+          <t>Prozis</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.0x 1(21.5g)</t>
+          <t>0.3x 100g</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>122</v>
+        <v>106.8</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>24.6</v>
       </c>
       <c r="G58" t="n">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>0.3</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59">
@@ -2685,68 +2685,68 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+          <t>1.0x Bueno</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Kinder</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.0x 1(21.5g)</t>
+        </is>
+      </c>
       <c r="E59" t="n">
-        <v>390.5</v>
+        <v>122</v>
       </c>
       <c r="F59" t="n">
-        <v>39.8</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>29.3</v>
+        <v>11</v>
       </c>
       <c r="H59" t="n">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>14.9</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Icecream Strawberry</t>
+          <t>Icecream Bueno</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3.3x Milk 1.7%</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Olympos</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3.3x 100g</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>161.7</v>
+        <v>390.5</v>
       </c>
       <c r="F60" t="n">
-        <v>13.2</v>
+        <v>39.8</v>
       </c>
       <c r="G60" t="n">
-        <v>16.5</v>
+        <v>29.3</v>
       </c>
       <c r="H60" t="n">
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="I60" t="n">
-        <v>6.6</v>
+        <v>14.9</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="61">
@@ -2757,33 +2757,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.3x Protein Shake</t>
+          <t>3.3x Milk 1.7%</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MyProtein</t>
+          <t>Olympos</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.3x 100g</t>
+          <t>3.3x 100g</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>119.7</v>
+        <v>161.7</v>
       </c>
       <c r="F61" t="n">
-        <v>18.3</v>
+        <v>13.2</v>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2797,33 +2797,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0.5x Strawberries</t>
+          <t>0.3x Protein Shake</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Frozen</t>
+          <t>MyProtein</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.5x 100g</t>
+          <t>0.3x 100g</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>18</v>
+        <v>119.7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5</v>
+        <v>18.3</v>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2837,25 +2837,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+          <t>0.5x Strawberries</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Frozen</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
       <c r="E63" t="n">
-        <v>299.4</v>
+        <v>18</v>
       </c>
       <c r="F63" t="n">
-        <v>32</v>
+        <v>0.5</v>
       </c>
       <c r="G63" t="n">
-        <v>24.5</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>8.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2864,41 +2872,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>chicken_tortilla</t>
+          <t>Icecream Strawberry</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.0x Tortilla</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>HighProtein</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1.0x 1(62.5g)</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>197</v>
+        <v>299.4</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G64" t="n">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2909,36 +2909,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0.6x Chichen</t>
+          <t>1.0x Tortilla</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>HighProtein</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.6x 100g</t>
+          <t>1.0x 1(62.5g)</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>101.4</v>
+        <v>197</v>
       </c>
       <c r="F65" t="n">
-        <v>19.2</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2949,36 +2949,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.2x Cheese</t>
+          <t>0.6x Chichen</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Dirollo</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.2x 100g</t>
+          <t>0.6x 100g</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>54.40000000000001</v>
+        <v>101.4</v>
       </c>
       <c r="F66" t="n">
-        <v>6.4</v>
+        <v>19.2</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="I66" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
@@ -2989,36 +2989,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0.5x Cottage</t>
+          <t>0.2x Cheese</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Flair</t>
+          <t>Dirollo</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.5x 100g</t>
+          <t>0.2x 100g</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>46</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="68">
@@ -3029,36 +3029,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.0x Mustard</t>
+          <t>0.5x Cottage</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Flair</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.0x 1tpsp</t>
+          <t>0.5x 100g</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
@@ -3069,28 +3069,2452 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>1.0x Mustard</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.0x 1tpsp</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>chicken_tortilla</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
         <v>408.8</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F70" t="n">
         <v>43.1</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G70" t="n">
         <v>29.5</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H70" t="n">
         <v>6.300000000000001</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I70" t="n">
         <v>11.6</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J70" t="n">
         <v>2.3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Protein rice porridge</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.15x PeanutButter</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Haitoglou</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.15x 100g</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Protein rice porridge</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.5x Rasberries</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Frozen</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>20</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Protein rice porridge</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.3x Protein Powder</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Prozis</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Protein rice porridge</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.5x Rice porridge - Speculus</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Prozis</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Protein rice porridge</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>399.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="G75" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8.149999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>chicken_rice</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2.0x Chichen</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Breast</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.0x 100g</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>338</v>
+      </c>
+      <c r="F76" t="n">
+        <v>64</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>chicken_rice</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1.0x Rice</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Basmati</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.0x 100g</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>351</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8</v>
+      </c>
+      <c r="G77" t="n">
+        <v>76</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>chicken_rice</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.0x Cucumber</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.0x 1(medium)</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>30</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>chicken_rice</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.5x OliveOil</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.5x 1 tablespoon</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>chicken_rice</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>776.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>73</v>
+      </c>
+      <c r="G80" t="n">
+        <v>83</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>protein_prozis_fruit</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.3x Protein Powder</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Prozis</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="F81" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>protein_prozis_fruit</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.0x Banana</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.0x 1(medium)</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>105</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>27</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>protein_prozis_fruit</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>211.8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="G83" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>omelette_soft</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.0x Bread</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.0x 1(slice)</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>61</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>omelette_soft</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.0x Egg</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.0x 1</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>72</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>omelette_soft</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3.0x Egg_white</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.0x 1(from 1 egg)</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>51</v>
+      </c>
+      <c r="F86" t="n">
+        <v>12</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>omelette_soft</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.5x Tomato</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>omelette_soft</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.2x Kefalotiri</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.2x 100g</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>70</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>omelette_soft</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.0x OliveOil</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.0x 1 tablespoon</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>115</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>omelette_soft</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>378</v>
+      </c>
+      <c r="F90" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="G90" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I90" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>turkey_patties_n_potato</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2.0x Turkey Patties</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Power in Meat</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.0x 1</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>290</v>
+      </c>
+      <c r="F91" t="n">
+        <v>58</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>turkey_patties_n_potato</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3.0x BabyPotatos</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.0x 100g</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>231</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6</v>
+      </c>
+      <c r="G92" t="n">
+        <v>51</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>turkey_patties_n_potato</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1.0x OliveOil</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.0x 1 tablespoon</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>115</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>turkey_patties_n_potato</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.0x Mustard</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.0x 1tpsp</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>10</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>turkey_patties_n_potato</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0.2x Kefalotiri</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.2x 100g</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>70</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>turkey_patties_n_potato</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>716</v>
+      </c>
+      <c r="F96" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="G96" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>apple_honey</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1.0x Apple</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.0x 1 medium</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>97</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>23</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>apple_honey</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2.0x Honey</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Homemade</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.0x 1 tablespoon</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>128</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>34</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>apple_honey</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>225</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>57</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>chicken_pasta_pesto</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0.6x Chichen</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Breast</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.6x 100g</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>chicken_pasta_pesto</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0.25x Pesto</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Barilla</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.25x 100g</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I101" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>chicken_pasta_pesto</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1.2x Pennes_Olikis</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Melissa</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.2x 100g</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>426</v>
+      </c>
+      <c r="F102" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>chicken_pasta_pesto</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0.15x Kefalotiri</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.15x 100g</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>chicken_pasta_pesto</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>700.4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="G104" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I104" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>turkey_patty_tortilla</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1.0x Tortilla</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>HighProtein</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.0x 1(62.5g)</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>197</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11</v>
+      </c>
+      <c r="G105" t="n">
+        <v>27</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>turkey_patty_tortilla</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1.0x Turkey Patties</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Power in Meat</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.0x 1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>145</v>
+      </c>
+      <c r="F106" t="n">
+        <v>29</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>turkey_patty_tortilla</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0.3x Corn_boiled</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>turkey_patty_tortilla</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1.0x Mustard</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.0x 1tpsp</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>turkey_patty_tortilla</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0.3x Cheese</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Dirollo</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I109" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>turkey_patty_tortilla</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>466</v>
+      </c>
+      <c r="F110" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>protein_smoothie</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0.3x Oats</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G111" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>protein_smoothie</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0.3x AlmondMilk</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Delta</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.3x 100ml</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>9.299999999999999</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>protein_smoothie</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0.5x Strawberries</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Frozen</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>18</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>protein_smoothie</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0.2x PeanutButter</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Haitoglou</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.2x 100g</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>122</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>protein_smoothie</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0.3x Protein Powder</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Prozis</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.3x 100g</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>protein_smoothie</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0.5x yogurt</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Fage</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.5x 100g</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>35</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>protein_smoothie</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>403.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>38.09999999999999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I117" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>steak_n_potatos</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2.4x striploin</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.4x 100g</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>434.4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>48</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>12</v>
+      </c>
+      <c r="I118" t="n">
+        <v>24</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>steak_n_potatos</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3.0x BabyPotatos</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.0x 100g</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>231</v>
+      </c>
+      <c r="F119" t="n">
+        <v>6</v>
+      </c>
+      <c r="G119" t="n">
+        <v>51</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>steak_n_potatos</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0.5x OliveOil</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.5x 1 tablespoon</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>steak_n_potatos</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>722.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>54</v>
+      </c>
+      <c r="G121" t="n">
+        <v>51</v>
+      </c>
+      <c r="H121" t="n">
+        <v>13</v>
+      </c>
+      <c r="I121" t="n">
+        <v>29</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>light_protein_yogurt</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1.0x yogurt</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Fage</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.0x 100g</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>70</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>light_protein_yogurt</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0.2x Protein Powder</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Prozis</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.2x 100g</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>light_protein_yogurt</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0.4x Rasberries</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Frozen</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.4x 100g</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>16</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>light_protein_yogurt</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0.5x Honey</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Homemade</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.5x 1 tablespoon</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>32</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>light_protein_yogurt</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G126" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>tuna_fakes</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1.4x Tuna(water)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.4x 100g</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>140</v>
+      </c>
+      <c r="F127" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>tuna_fakes</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1.0x Fakes</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.0x 100g</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>329</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25</v>
+      </c>
+      <c r="G128" t="n">
+        <v>48</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>tuna_fakes</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1.0x Cucumber</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.0x 1(medium)</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>30</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>tuna_fakes</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0.4x Paksimadi(Krithino)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.4x 100g</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G130" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>tuna_fakes</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1.0x OliveOil</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.0x 1 tablespoon</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>115</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>tuna_fakes</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>764.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>62.59999999999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I132" t="n">
+        <v>14</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
